--- a/analize.xlsx
+++ b/analize.xlsx
@@ -124,6 +124,85 @@
 </styleSheet>
 </file>
 
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<chartSpace xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns="http://schemas.openxmlformats.org/drawingml/2006/chart">
+  <chart>
+    <title>
+      <tx>
+        <rich>
+          <a:bodyPr/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:t>Mēneša patēriņš</a:t>
+            </a:r>
+          </a:p>
+        </rich>
+      </tx>
+    </title>
+    <plotArea>
+      <pieChart>
+        <varyColors val="1"/>
+        <ser>
+          <idx val="0"/>
+          <order val="0"/>
+          <spPr>
+            <a:ln>
+              <a:prstDash val="solid"/>
+            </a:ln>
+          </spPr>
+          <cat>
+            <numRef>
+              <f>'Sheet'!$A$2:$A$6</f>
+            </numRef>
+          </cat>
+          <val>
+            <numRef>
+              <f>'Sheet'!$B$2:$B$6</f>
+            </numRef>
+          </val>
+        </ser>
+        <firstSliceAng val="0"/>
+      </pieChart>
+    </plotArea>
+    <legend>
+      <legendPos val="r"/>
+    </legend>
+    <plotVisOnly val="1"/>
+    <dispBlanksAs val="gap"/>
+  </chart>
+</chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<wsDr xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing">
+  <oneCellAnchor>
+    <from>
+      <col>3</col>
+      <colOff>0</colOff>
+      <row>0</row>
+      <rowOff>0</rowOff>
+    </from>
+    <ext cx="5400000" cy="2700000"/>
+    <graphicFrame>
+      <nvGraphicFramePr>
+        <cNvPr id="1" name="Chart 1"/>
+        <cNvGraphicFramePr/>
+      </nvGraphicFramePr>
+      <xfrm/>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </graphicFrame>
+    <clientData/>
+  </oneCellAnchor>
+</wsDr>
+</file>
+
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
 <a:theme xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" name="Office Theme">
   <a:themeElements>
@@ -408,12 +487,12 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<worksheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B5"/>
+  <dimension ref="A1:B6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -424,64 +503,67 @@
     <row r="1">
       <c r="A1" t="inlineStr">
         <is>
-          <t>Draugs1</t>
+          <t>Avota nosaukums</t>
         </is>
       </c>
       <c r="B1" t="inlineStr">
         <is>
-          <t>-5</t>
+          <t>Patēriņa summa</t>
         </is>
       </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>Draugs2</t>
-        </is>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>-3</t>
-        </is>
+          <t>Draugs1</t>
+        </is>
+      </c>
+      <c r="B2" t="n">
+        <v>-5</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>ŖIMI</t>
-        </is>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>-31.95</t>
-        </is>
+          <t>Draugs2</t>
+        </is>
+      </c>
+      <c r="B3" t="n">
+        <v>-3</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>EXPO</t>
-        </is>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>-35.4</t>
-        </is>
+          <t>RIMI</t>
+        </is>
+      </c>
+      <c r="B4" t="n">
+        <v>-31.95</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
+          <t>EXPO</t>
+        </is>
+      </c>
+      <c r="B5" t="n">
+        <v>-35.4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="inlineStr">
+        <is>
           <t>Pārējais</t>
         </is>
       </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>-172.22</t>
-        </is>
+      <c r="B6" t="n">
+        <v>-172.22</v>
       </c>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <drawing r:id="rId1"/>
 </worksheet>
 </file>